--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1585.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1585.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9887461644436809</v>
+        <v>0.4427559971809387</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.5897301435470581</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.9554622173309326</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>5.439185619354248</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>3.173203706741333</v>
       </c>
     </row>
   </sheetData>
